--- a/Output_testing/R1_201907/Country/HKD/MN/SOLOMON ISLANDS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SOLOMON ISLANDS_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>0.931396</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.325813</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>26.70448661631431</v>
@@ -661,8 +663,10 @@
       <c r="H10" s="9" t="n">
         <v>-31.78773752814013</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>1570.236916347264</v>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="J10" s="9" t="n">
         <v>-8.458234840886147</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/SOLOMON ISLANDS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SOLOMON ISLANDS_201907_HKD_MN.xlsx
@@ -814,136 +814,453 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>20.58254</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>38.00093797930338</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>30.406752</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>48.5979410811766</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>19.204746</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>24.16223528178641</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>7.004451</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>43.7461438077492</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>39.9610675920074</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1.751713</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.234136169323099</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1.290159</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.062011459407099</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.632752</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.054228573541526</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.218378</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.60935285294991</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>38.23558110141165</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.455812</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.534093435544349</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.312446</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.097631913471913</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>4.009878</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.044982926994146</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.867503</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.41797080051725</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-39.88960512977218</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.796596</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.31700233158126</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.76675</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.823728506259687</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.592049</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.003018551671174</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.856391</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.348571050273911</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-4.915806747451335</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.909309</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.678830451101875</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.084628</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.733519174918597</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.033859</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.558876836380904</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.688028</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.297063657345603</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>9.541679071863097</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1170997112765148</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.1054708746888824</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.322233240582086</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.653637</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.082275427448313</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>283.3917929707663</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.668393</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.234034329038133</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>0.761332</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.216807624806962</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0.534263</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.6721769873110038</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.336158475254011</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-16.509643478125</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.693551</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.280482804186647</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.642181</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.026373168743938</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.5044092164753421</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.826102787450462</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>32.18801849984854</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.931541</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>10.95122961804982</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.2012786603448818</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.216231275797113</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.721834534182594</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>123.113963387987</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.7979850000000001</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.473296225510282</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.583997</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.9333799215905695</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.622027</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7825962772756148</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.630038500248414</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-21.14859394071228</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>18.512377</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>34.17885694508464</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>24.527812</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>39.20185761459087</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>49.024013</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>61.67901083218469</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>3.520065</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>21.98448810658033</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-51.95970749461127</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1292,575 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>34.95274872476675</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>25.81309587758989</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>36.84673329067336</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>70.82283395690166</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>22.01828555715954</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.5008089999999999</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>41.82372551836102</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>31.28075165024931</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>50.60543528209268</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>25.11348534281935</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-73.77308233514221</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.553974017644485</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.909260180794163</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>7.316866295324438</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.063680700278995</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-67.12927331860274</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.621141312880607</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>5.918949113330851</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.6399082667308</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.429731056898619</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.591056865178721</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>14.27509318182567</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>10.064362194708</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>10.84574604903176</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>6.70830051509529</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>5.42253897520352</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.35039434521324</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1892,463 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>20.58254</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>38.86004659533789</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>30.406752</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>49.8056659022048</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>19.204746</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>24.44873173184236</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>7.004451</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>44.65480564169873</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>39.9610675920074</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1.751713</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.30725210793513</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.290159</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>2.113255243924857</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.632752</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.078585972062795</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.218378</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.767408578933827</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>38.23558110141165</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.455812</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.636598240517931</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.312446</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.149760914637811</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4.009878</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.104802297276755</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.867503</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.530508794849244</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-39.88960512977218</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1.766014</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.33425254259285</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1.677095</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.747048854683926</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.5239</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.940011197552655</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.843151</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.37525982144838</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-2.003284568455821</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.1197470504276589</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.1080919691308166</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.3260540244806014</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.653637</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.167069367067175</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>283.3917929707663</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.771252189195091</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.610038</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.9992303293574142</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.562522</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.989179195762432</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.606205</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.864680680045586</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>91.76662997127636</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>0.668393</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.26193283841536</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.761332</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.247046946436679</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>0.534263</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.680147124114492</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.384683393332506</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-16.509643478125</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>0.62862</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.186841006540559</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.642181</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.051879935572987</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.5103900973090215</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.86403321430402</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>32.18801849984854</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.931541</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>11.19881023635358</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.2062807083459642</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2187951732256609</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.757599179689721</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>123.113963387987</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>POLYACETALS, OTHER POLYETHERS AND EPOXIDE RESINS, IN PRIMARY FORMS; POLYCARBONATES, ALKYD RESINS AND OTHER POLYESTERS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.6742443342794656</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.612818</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.003783915061278</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.294880481496225</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>18.352137</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>34.64902285840448</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>23.546041</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>38.56795528064347</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>49.25413</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>62.70330318637323</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>3.347198</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>21.33907084713459</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-55.13441922079516</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2380,561 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>52.31637270545223</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>19.302553</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>89.5421295896623</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>13.763574</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>80.08780138448421</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-25.25429072060646</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.64928370870367</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.262854</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>30.82965027371496</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.270971</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.895875534531761</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.012777</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.893170133191695</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>17.81668898270283</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.662368</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>91.17272174183549</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.834948801728027</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.6992159999999999</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.243575587289687</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.287129124221747</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-19.65573489010989</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.850661667341135</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.7702688714897008</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.08261564939868864</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.719756971113479</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>6.679358005112991</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.8129906682999837</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.505428620216282</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5694013425020849</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.285212072159868</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.9716475475500277</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
